--- a/Peakfinder Results/RESULTS_TT.xlsx
+++ b/Peakfinder Results/RESULTS_TT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,17 +476,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>RMS</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>tau</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
         </is>
       </c>
     </row>
@@ -533,17 +548,32 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[16.47, 15.11, 14.24]</t>
+          <t>[68.41, 59.69, 60.03]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>[61.71, 54.32, 56.68]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[24.89, 22.76, 21.65]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>[166.45, 176.1, 158.98]</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>[6527.53, 6035.29, 5555.23]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[21.58, 21.58, 21.58]</t>
         </is>
       </c>
     </row>
@@ -590,17 +620,32 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[8.61]</t>
+          <t>[38.23]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>[31.859999999999996]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[13.0]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>[87.13]</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>[3744.3]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[-2.17]</t>
         </is>
       </c>
     </row>
@@ -647,17 +692,32 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[21.31]</t>
+          <t>[77.8]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>[68.07]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[32.06]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>[180.23]</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>[8599.23]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[-9.16]</t>
         </is>
       </c>
     </row>
@@ -704,17 +764,32 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[21.09]</t>
+          <t>[72.1]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>[67.41]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[31.59]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>[211.58]</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>[8914.52]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[-12.09]</t>
         </is>
       </c>
     </row>
@@ -761,17 +836,32 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[16.95]</t>
+          <t>[64.72]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>[53.65]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[25.69]</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>[162.86]</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>[6755.05]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[21.58]</t>
         </is>
       </c>
     </row>
@@ -818,17 +908,32 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[20.25]</t>
+          <t>[74.78]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>[72.77]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>[30.44]</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>[190.65]</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>[8334.05]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[10.9]</t>
         </is>
       </c>
     </row>
@@ -875,17 +980,32 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[20.98, 17.35]</t>
+          <t>[77.13, 64.05]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>[69.08, 56.339999999999996]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>[31.95, 26.12]</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>[163.29, 187.15]</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>[8108.53, 7178.11]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[-0.89, -0.89]</t>
         </is>
       </c>
     </row>
@@ -932,17 +1052,32 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[36.18]</t>
+          <t>[138.5]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>[132.8]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[55.92]</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>[148.53]</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>[13209.68]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>[5.9]</t>
         </is>
       </c>
     </row>
@@ -989,17 +1124,32 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[34.58, 31.42]</t>
+          <t>[131.46, 117.38]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>[104.64000000000001, 112.00999999999999]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[53.46, 48.49]</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>[106.18, 134.91]</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>[12340.09, 11582.23]</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>[11.26, 11.26]</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1196,32 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[40.82]</t>
+          <t>[169.69]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>[150.23999999999998]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[63.34]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>[96.9]</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>[13351.68]</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[12.95]</t>
         </is>
       </c>
     </row>
@@ -1103,17 +1268,32 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[36.47]</t>
+          <t>[139.17]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>[122.4]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[56.36]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>[124.24]</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>[13350.31]</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>[13.32]</t>
         </is>
       </c>
     </row>
@@ -1160,17 +1340,32 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[74.82]</t>
+          <t>[208.26]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>[211.61]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>[115.19]</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>[135.09]</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>[25421.91]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[9.24]</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1412,32 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[43.65]</t>
+          <t>[166.67]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>[136.14999999999998]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>[66.51]</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>[124.63]</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>[16802.99]</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>[9.73]</t>
         </is>
       </c>
     </row>
@@ -1274,17 +1484,32 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[37.39, 36.62]</t>
+          <t>[140.18, 148.23]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>[123.74000000000001, 144.88]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>[57.89, 56.73]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>[118.28, 112.97]</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>[14944.38, 12442.7]</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[13.5, 13.5]</t>
         </is>
       </c>
     </row>
@@ -1331,17 +1556,32 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[43.42]</t>
+          <t>[180.07999999999998]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>[170.69]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>[66.48]</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>[134.82]</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>[16123.5]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>[13.32]</t>
         </is>
       </c>
     </row>
@@ -1388,17 +1628,32 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[35.19]</t>
+          <t>[140.52]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>[137.17000000000002]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[54.68]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>[95.64]</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>[13642.14]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[-1.18]</t>
         </is>
       </c>
     </row>
@@ -1445,17 +1700,32 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[21.77]</t>
+          <t>[91.22]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>[74.78999999999999]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>[33.36]</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>[127.32]</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>[8082.37]</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>[31.79]</t>
         </is>
       </c>
     </row>
@@ -1502,17 +1772,32 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[5.52]</t>
+          <t>[14.42]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>[17.43]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>[7.91]</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>[211.15]</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>[2385.02]</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>[10.3]</t>
         </is>
       </c>
     </row>
@@ -1559,17 +1844,32 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[26.8]</t>
+          <t>[112.68]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>[101.61000000000001]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[41.45]</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>[93.57]</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>[10284.91]</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>[3.63]</t>
         </is>
       </c>
     </row>
@@ -1616,17 +1916,32 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[26.38]</t>
+          <t>[103.63]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>[88.53]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[40.22]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>[126.35]</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>[10006.42]</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>[8.59]</t>
         </is>
       </c>
     </row>
@@ -1673,17 +1988,32 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[36.75]</t>
+          <t>[139.84]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
+          <t>[142.86]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[56.84]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>[96.06]</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>[10449.78]</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>[11.93]</t>
         </is>
       </c>
     </row>
@@ -1730,17 +2060,32 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[22.38]</t>
+          <t>[85.85]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
+          <t>[71.08999999999999]</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>[34.17]</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
           <t>[133.17]</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>[9227.84]</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>[21.91]</t>
         </is>
       </c>
     </row>
@@ -1787,17 +2132,32 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[33.4, 48.19]</t>
+          <t>[140.18, 166.67]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>[138.84, 159.63]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>[52.0, 74.53]</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
           <t>[76.82, 104.6]</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>[12176.37, 14994.85]</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>[7.75, 7.75]</t>
         </is>
       </c>
     </row>
@@ -1844,17 +2204,32 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[27.98]</t>
+          <t>[102.62]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
+          <t>[90.21000000000001]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>[42.11]</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>[184.2]</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>[11440.56]</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>[None]</t>
         </is>
       </c>
     </row>
@@ -1901,17 +2276,32 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[24.64]</t>
+          <t>[84.17999999999999]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
+          <t>[79.14999999999999]</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>[36.99]</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
           <t>[203.45]</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>[10095.6]</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>[3.72]</t>
         </is>
       </c>
     </row>
@@ -1958,17 +2348,32 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[12.88, 15.58]</t>
+          <t>[54.66, 64.05]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
+          <t>[51.309999999999995, 55.33]</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>[19.75, 23.78]</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
           <t>[102.38, 130.47]</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>[5334.03, 5796.44]</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>[36.17, 36.17]</t>
         </is>
       </c>
     </row>
@@ -2015,17 +2420,32 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[27.61]</t>
+          <t>[94.57]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
+          <t>[74.10999999999999]</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>[41.71]</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
           <t>[161.77]</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>[11459.74]</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>[1.33]</t>
         </is>
       </c>
     </row>
@@ -2072,17 +2492,32 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[15.5]</t>
+          <t>[65.73]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
+          <t>[58.35]</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>[23.7]</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
           <t>[122.89]</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>[5801.06]</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>[14.99]</t>
         </is>
       </c>
     </row>
@@ -2129,17 +2564,32 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[23.7]</t>
+          <t>[94.89999999999999]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
+          <t>[81.14999999999999]</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>[36.03]</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
           <t>[135.88]</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>[9176.41]</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>[20.7]</t>
         </is>
       </c>
     </row>
@@ -2186,17 +2636,32 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[18.22]</t>
+          <t>[74.11]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
+          <t>[62.040000000000006]</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>[27.75]</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
           <t>[139.37]</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>[7096.2]</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>[14.05]</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2708,32 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>[15.73]</t>
+          <t>[62.38]</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
+          <t>[52.32]</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>[23.96]</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>[142.12]</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>[6040.1]</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>[17.93]</t>
         </is>
       </c>
     </row>
@@ -2300,17 +2780,32 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>[16.73]</t>
+          <t>[67.07]</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
+          <t>[60.699999999999996]</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>[25.85]</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
           <t>[114.05]</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>[5726.84]</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>[0.4]</t>
         </is>
       </c>
     </row>
@@ -2357,17 +2852,32 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>[13.24]</t>
+          <t>[54.31999999999999]</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
+          <t>[49.629999999999995]</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>[20.28]</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
           <t>[116.29]</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>[4972.0]</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>[-15.83]</t>
         </is>
       </c>
     </row>
@@ -2414,17 +2924,32 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[20.34]</t>
+          <t>[73.78]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
+          <t>[69.08999999999999]</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>[31.17]</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
           <t>[139.34]</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>[7738.17]</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>[-1.61]</t>
         </is>
       </c>
     </row>
@@ -2471,17 +2996,32 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>[11.72]</t>
+          <t>[44.93]</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
+          <t>[44.260000000000005]</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>[17.94]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
           <t>[145.22]</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>[4449.28]</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>[6.76]</t>
         </is>
       </c>
     </row>
@@ -2528,17 +3068,32 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[17.3]</t>
+          <t>[68.41]</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
+          <t>[57.01]</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>[26.47]</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
           <t>[146.0]</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>[6377.62]</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>[6.29]</t>
         </is>
       </c>
     </row>
@@ -2585,17 +3140,32 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>[19.09]</t>
+          <t>[83.16]</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
+          <t>[68.07]</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>[29.64]</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
           <t>[88.15]</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>[6467.83]</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>[14.57]</t>
         </is>
       </c>
     </row>
@@ -2642,17 +3212,32 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[18.94]</t>
+          <t>[78.47]</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
+          <t>[67.07]</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>[29.08]</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
           <t>[146.41]</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>[7069.06]</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>[5.7]</t>
         </is>
       </c>
     </row>
@@ -2699,17 +3284,32 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>[17.35]</t>
+          <t>[65.73]</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
+          <t>[56.68000000000001]</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>[26.69]</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
           <t>[131.72]</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>[6296.06]</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>[6.05]</t>
         </is>
       </c>
     </row>
@@ -2756,17 +3356,32 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>[19.26]</t>
+          <t>[79.82]</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
+          <t>[71.77]</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>[29.73]</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
           <t>[96.76]</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>[6628.12]</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>[8.68]</t>
         </is>
       </c>
     </row>
@@ -2813,17 +3428,32 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>[44.05, 13.65]</t>
+          <t>[162.64, 56.34]</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
+          <t>[136.82, 51.980000000000004]</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>[66.49, 20.44]</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
           <t>[156.36, 222.84]</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>[17902.09, 5659.07]</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>[None, None]</t>
         </is>
       </c>
     </row>
@@ -2870,17 +3500,32 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>[61.9]</t>
+          <t>[189.81]</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
+          <t>[188.47]</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>[90.46]</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
           <t>[206.84]</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>[28160.15]</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>[-9.89]</t>
         </is>
       </c>
     </row>
@@ -2927,17 +3572,32 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>[46.79]</t>
+          <t>[187.47]</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
+          <t>[178.41]</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>[71.22]</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
           <t>[92.0]</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>[19613.36]</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>[-3.57]</t>
         </is>
       </c>
     </row>
@@ -2984,17 +3644,32 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>[60.67, 54.6]</t>
+          <t>[199.2, 178.74]</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
+          <t>[178.41, 171.37]</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>[89.73, 80.7]</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
           <t>[202.61, 204.84]</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>[26129.26, 23717.0]</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>[3.66, 3.66]</t>
         </is>
       </c>
     </row>
@@ -3041,17 +3716,32 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>[34.9]</t>
+          <t>[137.16]</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
+          <t>[113.69]</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>[52.9]</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
           <t>[114.63]</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>[13788.54]</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>[16.59]</t>
         </is>
       </c>
     </row>
@@ -3098,17 +3788,32 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>[27.13]</t>
+          <t>[86.85]</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
+          <t>[86.18]</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>[39.85]</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
           <t>[195.87]</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>[12143.53]</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>[8.63]</t>
         </is>
       </c>
     </row>
@@ -3155,17 +3860,32 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>[10.19]</t>
+          <t>[43.6]</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
+          <t>[36.22]</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>[15.31]</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
           <t>[128.84]</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>[4169.25]</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>[17.73]</t>
         </is>
       </c>
     </row>
@@ -3212,17 +3932,32 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>[36.71]</t>
+          <t>[118.38]</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
+          <t>[121.4]</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>[56.37]</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
           <t>[107.65]</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>[12034.39]</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>[None]</t>
         </is>
       </c>
     </row>
@@ -3269,17 +4004,32 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>[34.06]</t>
+          <t>[120.06]</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
+          <t>[105.63]</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>[51.7]</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
           <t>[146.09]</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>[13653.89]</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>[-9.16]</t>
         </is>
       </c>
     </row>
@@ -3326,17 +4076,32 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>[29.91]</t>
+          <t>[114.35]</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
+          <t>[93.9]</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>[45.2]</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
           <t>[132.56]</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>[12118.11]</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>[-12.09]</t>
         </is>
       </c>
     </row>
@@ -3383,17 +4148,32 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>[17.51, 17.25]</t>
+          <t>[66.06, 62.37]</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
+          <t>[57.68000000000001, 51.31]</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>[25.79, 25.4]</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
           <t>[162.73, 159.78]</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>[7784.66, 7733.45]</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>[10.9, 10.9]</t>
         </is>
       </c>
     </row>
@@ -3440,17 +4220,32 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>[10.89]</t>
+          <t>[33.87]</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
+          <t>[32.529999999999994]</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>[14.76]</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
           <t>[486.57]</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>[5623.93]</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>[17.44]</t>
         </is>
       </c>
     </row>
@@ -3497,17 +4292,32 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>[18.16, 21.25]</t>
+          <t>[67.74, 87.86]</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
+          <t>[63.05, 80.82000000000001]</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>[26.5, 31.92]</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
           <t>[132.28, 143.61]</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>[8147.9, 8758.21]</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>[23.05, 23.05]</t>
         </is>
       </c>
     </row>
@@ -3554,17 +4364,32 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>[23.97, 22.71]</t>
+          <t>[95.57, 84.17]</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
+          <t>[81.82, 75.12]</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>[36.37, 33.84]</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
           <t>[132.36, 133.14]</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>[9567.42, 9677.98]</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>[18.8, 18.8]</t>
         </is>
       </c>
     </row>
@@ -3611,17 +4436,32 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>[62.18]</t>
+          <t>[275.66]</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
+          <t>[222.67000000000002]</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>[97.41]</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
           <t>[83.92]</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>[19719.56]</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>[5.9]</t>
         </is>
       </c>
     </row>
@@ -3668,17 +4508,32 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>[53.78]</t>
+          <t>[223.35]</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
+          <t>[181.76000000000002]</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>[84.26]</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
           <t>[80.42]</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>[16923.88]</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>[4.04]</t>
         </is>
       </c>
     </row>
@@ -3725,17 +4580,32 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>[61.99, 51.77]</t>
+          <t>[241.79000000000002, 311.21000000000004]</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
+          <t>[238.44, 305.18]</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>[96.79, 81.36]</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
           <t>[105.23, 32.49]</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>[21845.04, 10961.05]</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>[4.04, 4.04]</t>
         </is>
       </c>
     </row>
@@ -3782,17 +4652,32 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>[57.81]</t>
+          <t>[240.45000000000002]</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
+          <t>[206.91]</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>[90.45]</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
           <t>[103.41]</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>[19400.23]</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>[7.78]</t>
         </is>
       </c>
     </row>
@@ -3839,17 +4724,32 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>[63.41]</t>
+          <t>[251.18]</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
+          <t>[212.95000000000002]</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>[99.36]</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
           <t>[72.21]</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>[16373.61]</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>[11.92]</t>
         </is>
       </c>
     </row>
@@ -3896,17 +4796,32 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>[57.35, 59.03]</t>
+          <t>[235.07999999999998, 250.18]</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
+          <t>[186.45999999999998, 209.27]</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>[89.79, 92.47]</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
           <t>[87.27, 80.99]</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>[18952.5, 18280.21]</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>[9.73, 9.73]</t>
         </is>
       </c>
     </row>
@@ -3953,17 +4868,32 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>[59.59]</t>
+          <t>[233.75]</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
+          <t>[194.17999999999998]</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>[93.32]</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
           <t>[96.81]</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>[20411.98]</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>[13.5]</t>
         </is>
       </c>
     </row>
@@ -4010,17 +4940,32 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>[29.68]</t>
+          <t>[136.83]</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
+          <t>[129.12]</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>[46.61]</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
           <t>[83.15]</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>[7991.16]</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>[-1.18]</t>
         </is>
       </c>
     </row>
@@ -4067,17 +5012,32 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>[20.69]</t>
+          <t>[115.03]</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
+          <t>[94.91]</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>[32.47]</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
           <t>[50.61]</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>[5071.71]</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>[31.79]</t>
         </is>
       </c>
     </row>
@@ -4124,17 +5084,32 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>[29.92]</t>
+          <t>[135.82000000000002]</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
+          <t>[127.10000000000001]</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>[47.0]</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
           <t>[67.93]</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>[9582.29]</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>[-3.2]</t>
         </is>
       </c>
     </row>
@@ -4181,17 +5156,32 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>[31.03]</t>
+          <t>[149.9]</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
+          <t>[127.44000000000001]</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>[48.8]</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
           <t>[78.48]</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>[9582.67]</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>[10.85]</t>
         </is>
       </c>
     </row>
@@ -4238,17 +5228,32 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>[22.83]</t>
+          <t>[121.06]</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
+          <t>[111.0]</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>[35.93]</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
           <t>[51.24]</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>[6213.36]</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>[13.09]</t>
         </is>
       </c>
     </row>
@@ -4295,17 +5300,32 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>[28.73]</t>
+          <t>[150.24]</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
+          <t>[127.10000000000001]</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>[45.17]</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
           <t>[63.92]</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>[8381.88]</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>[8.59]</t>
         </is>
       </c>
     </row>
@@ -4352,17 +5372,32 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>[28.84]</t>
+          <t>[141.19]</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
+          <t>[135.82000000000002]</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>[45.35]</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
           <t>[54.39]</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>[8426.46]</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>[12.53]</t>
         </is>
       </c>
     </row>
@@ -4409,17 +5444,32 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>[25.33, 25.22, 28.18]</t>
+          <t>[132.46, 148.9, 135.15]</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
+          <t>[128.44, 125.76, 134.14000000000001]</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>[39.85, 39.7, 44.22]</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
           <t>[54.83, 55.02, 65.39]</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>[7018.21, 6633.54, 7054.98]</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>[9.33, 9.33, 9.33]</t>
         </is>
       </c>
     </row>
@@ -4466,17 +5516,32 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>[42.96, 52.38]</t>
+          <t>[146.55, 168.35]</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
+          <t>[114.69000000000001, 141.53]</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>[64.59, 79.8]</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
           <t>[152.7, 168.98]</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>[18159.07, 21143.88]</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>[5.65, 5.65]</t>
         </is>
       </c>
     </row>
@@ -4523,17 +5588,32 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>[39.64]</t>
+          <t>[146.54999999999998]</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
+          <t>[114.02000000000001]</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>[60.73]</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
           <t>[105.68]</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>[15117.76]</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>[10.11]</t>
         </is>
       </c>
     </row>
@@ -4580,17 +5660,32 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>[43.29]</t>
+          <t>[156.28]</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
+          <t>[153.92999999999998]</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>[65.66]</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
           <t>[131.49]</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>[17509.99]</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>[14.99]</t>
         </is>
       </c>
     </row>
@@ -4637,17 +5732,32 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>[21.69]</t>
+          <t>[96.92]</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
+          <t>[84.51]</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>[32.99]</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
           <t>[98.57]</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>[8301.34]</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>[15.32]</t>
         </is>
       </c>
     </row>
@@ -4694,17 +5804,32 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>[45.12]</t>
+          <t>[174.38]</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
+          <t>[155.94]</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>[68.75]</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
           <t>[127.92]</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>[17405.68]</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>[14.05]</t>
         </is>
       </c>
     </row>
@@ -4751,17 +5876,32 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>[39.84]</t>
+          <t>[153.93]</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
+          <t>[140.85]</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>[61.1]</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
           <t>[117.26]</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>[15011.63]</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>[15.16]</t>
         </is>
       </c>
     </row>
@@ -4808,17 +5948,32 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>[31.33]</t>
+          <t>[112.67999999999999]</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
+          <t>[105.31]</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>[46.59]</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
           <t>[137.57]</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>[13202.85]</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>[11.44]</t>
         </is>
       </c>
     </row>
@@ -4865,17 +6020,32 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>[39.0]</t>
+          <t>[152.59]</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
+          <t>[151.25]</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>[59.46]</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
           <t>[125.84]</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>[14830.6]</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>[6.01]</t>
         </is>
       </c>
     </row>
@@ -4922,17 +6092,32 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>[43.13]</t>
+          <t>[153.59]</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
+          <t>[131.13]</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>[65.49]</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
           <t>[123.98]</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>[16849.11]</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>[12.23]</t>
         </is>
       </c>
     </row>
@@ -4979,17 +6164,32 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>[39.66]</t>
+          <t>[144.2]</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
+          <t>[142.85999999999999]</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>[59.11]</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
           <t>[148.92]</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>[17044.38]</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>[None]</t>
         </is>
       </c>
     </row>
@@ -5036,17 +6236,32 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>[23.32, 27.56]</t>
+          <t>[94.89999999999999, 111.0]</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
+          <t>[81.83, 106.98]</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>[34.85, 42.48]</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
           <t>[144.5, 107.72]</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>[9739.65, 10195.39]</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>[0.4, 0.4]</t>
         </is>
       </c>
     </row>
@@ -5093,17 +6308,32 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>[24.53]</t>
+          <t>[91.55]</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
+          <t>[83.84]</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>[36.4]</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
           <t>[157.29]</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="M82" t="inlineStr">
         <is>
           <t>[10504.11]</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>[29.27]</t>
         </is>
       </c>
     </row>
@@ -5150,17 +6380,32 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>[36.65]</t>
+          <t>[140.18]</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
+          <t>[134.48000000000002]</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>[55.74]</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
           <t>[113.55]</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="M83" t="inlineStr">
         <is>
           <t>[14850.01]</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>[-1.61]</t>
         </is>
       </c>
     </row>
@@ -5207,17 +6452,32 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>[40.72]</t>
+          <t>[152.92]</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
+          <t>[134.14]</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>[61.26]</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
           <t>[140.89]</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="M84" t="inlineStr">
         <is>
           <t>[16535.37]</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>[6.76]</t>
         </is>
       </c>
     </row>
@@ -5264,17 +6524,32 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>[24.61]</t>
+          <t>[153.59]</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
+          <t>[135.49]</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>[38.55]</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
           <t>[42.72]</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>[3462.56]</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>[6.05]</t>
         </is>
       </c>
     </row>
@@ -5321,17 +6596,32 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>[37.88]</t>
+          <t>[140.18]</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
+          <t>[134.15]</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>[56.34]</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
           <t>[157.69]</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="M86" t="inlineStr">
         <is>
           <t>[16454.96]</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>[13.77]</t>
         </is>
       </c>
     </row>
@@ -5378,17 +6668,32 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>[40.05]</t>
+          <t>[156.27]</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
+          <t>[143.53]</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>[61.66]</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
           <t>[115.21]</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>[15174.66]</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>[0.31]</t>
         </is>
       </c>
     </row>
@@ -5435,17 +6740,32 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>[32.29]</t>
+          <t>[123.41]</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
+          <t>[107.99]</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>[47.98]</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
           <t>[153.23]</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="M88" t="inlineStr">
         <is>
           <t>[13300.14]</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>[8.68]</t>
         </is>
       </c>
     </row>
@@ -5492,17 +6812,32 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>[53.79]</t>
+          <t>[208.25]</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
+          <t>[170.69]</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>[80.37]</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
           <t>[152.47]</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="M89" t="inlineStr">
         <is>
           <t>[21872.68]</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>[8.1]</t>
         </is>
       </c>
     </row>
@@ -5549,17 +6884,32 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>[79.21]</t>
+          <t>[274.66]</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
+          <t>[281.03000000000003]</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>[120.91]</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
           <t>[89.99]</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="M90" t="inlineStr">
         <is>
           <t>[25862.07]</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>[-3.57]</t>
         </is>
       </c>
     </row>
@@ -5606,17 +6956,32 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>[74.7]</t>
+          <t>[306.85]</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
+          <t>[277.68]</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>[113.08]</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
           <t>[116.4]</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="M91" t="inlineStr">
         <is>
           <t>[28961.0]</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>[3.66]</t>
         </is>
       </c>
     </row>
@@ -5663,17 +7028,32 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>[57.41]</t>
+          <t>[312.89]</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
+          <t>[312.89]</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>[88.61]</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
           <t>[53.59]</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="M92" t="inlineStr">
         <is>
           <t>[17102.59]</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>[12.31]</t>
         </is>
       </c>
     </row>
@@ -5720,17 +7100,32 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>[52.4]</t>
+          <t>[298.8]</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
+          <t>[282.37]</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>[81.89]</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
           <t>[44.95]</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="M93" t="inlineStr">
         <is>
           <t>[11856.75]</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>[11.84]</t>
         </is>
       </c>
     </row>
@@ -5777,17 +7172,32 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>[79.6]</t>
+          <t>[279.35]</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
+          <t>[237.43]</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>[119.14]</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
           <t>[172.65]</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="M94" t="inlineStr">
         <is>
           <t>[32613.87]</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>[16.59]</t>
         </is>
       </c>
     </row>
@@ -5834,17 +7244,32 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>[65.48, 65.39]</t>
+          <t>[231.73000000000002, 318.93]</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
+          <t>[214.3, 282.38]</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>[97.29, 99.76]</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
           <t>[200.81, 77.85]</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="M95" t="inlineStr">
         <is>
           <t>[27488.47, 23233.1]</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>[17.73, 17.73]</t>
         </is>
       </c>
     </row>
@@ -5891,17 +7316,32 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>[72.74]</t>
+          <t>[258.89000000000004]</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
+          <t>[228.38000000000002]</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>[108.86]</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
           <t>[173.57]</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="M96" t="inlineStr">
         <is>
           <t>[29697.27]</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>[9.12]</t>
         </is>
       </c>
     </row>
@@ -5948,17 +7388,32 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>[24.92]</t>
+          <t>[88.53]</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
+          <t>[85.51]</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>[35.89]</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
           <t>[229.11]</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="M97" t="inlineStr">
         <is>
           <t>[11131.48]</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>[None]</t>
         </is>
       </c>
     </row>
@@ -6005,17 +7460,32 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>[25.1, 23.99]</t>
+          <t>[91.22, 86.86]</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
+          <t>[87.53, 82.5]</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>[36.62, 34.83]</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
           <t>[147.6, 203.87]</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="M98" t="inlineStr">
         <is>
           <t>[10840.95, 10910.9]</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>[-1.08, -1.08]</t>
         </is>
       </c>
     </row>
@@ -6062,17 +7532,32 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>[23.46]</t>
+          <t>[80.82]</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
+          <t>[74.44999999999999]</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>[33.83]</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
           <t>[230.14]</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="M99" t="inlineStr">
         <is>
           <t>[10853.4]</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>[21.58]</t>
         </is>
       </c>
     </row>
@@ -6119,17 +7604,32 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>[35.99]</t>
+          <t>[113.35]</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
+          <t>[94.24]</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>[52.69]</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
           <t>[155.75]</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="M100" t="inlineStr">
         <is>
           <t>[14195.33]</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>[-9.16]</t>
         </is>
       </c>
     </row>
@@ -6176,17 +7676,32 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>[32.81]</t>
+          <t>[103.29]</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
+          <t>[102.95]</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>[46.99]</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
           <t>[225.81]</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
+      <c r="M101" t="inlineStr">
         <is>
           <t>[15597.4]</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>[-10.16]</t>
         </is>
       </c>
     </row>
@@ -6233,17 +7748,32 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>[29.07]</t>
+          <t>[97.92]</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
+          <t>[82.16]</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>[42.33]</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
           <t>[177.19]</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="M102" t="inlineStr">
         <is>
           <t>[13312.44]</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>[5.22]</t>
         </is>
       </c>
     </row>
@@ -6290,17 +7820,32 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>[35.9, 26.64]</t>
+          <t>[115.69, 94.57]</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
+          <t>[99.27, 90.88]</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>[52.26, 38.79]</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
           <t>[187.19, 193.04]</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
+      <c r="M103" t="inlineStr">
         <is>
           <t>[16536.77, 11853.4]</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>[-0.89, -0.89]</t>
         </is>
       </c>
     </row>
@@ -6347,17 +7892,32 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>[59.77, 48.36]</t>
+          <t>[221.0, 192.83]</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
+          <t>[216.31, 163.66]</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>[92.07, 74.34]</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
           <t>[128.95, 117.49]</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr">
+      <c r="M104" t="inlineStr">
         <is>
           <t>[21898.04, 17523.74]</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>[5.9, 5.9]</t>
         </is>
       </c>
     </row>
@@ -6404,17 +7964,32 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>[58.72]</t>
+          <t>[223.68]</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
+          <t>[188.14]</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>[90.35]</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
           <t>[125.41]</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
+      <c r="M105" t="inlineStr">
         <is>
           <t>[21477.3]</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>[4.04]</t>
         </is>
       </c>
     </row>
@@ -6461,17 +8036,32 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>[57.01]</t>
+          <t>[193.17]</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
+          <t>[207.25]</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>[87.11]</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
           <t>[118.3]</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
+      <c r="M106" t="inlineStr">
         <is>
           <t>[19756.5]</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>[7.78]</t>
         </is>
       </c>
     </row>
@@ -6518,17 +8108,32 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>[53.27]</t>
+          <t>[194.84]</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
+          <t>[179.75]</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>[81.68]</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
           <t>[157.37]</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="M107" t="inlineStr">
         <is>
           <t>[20143.85]</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>[13.83]</t>
         </is>
       </c>
     </row>
@@ -6575,17 +8180,32 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>[40.96, 45.97]</t>
+          <t>[170.35999999999999, 176.06]</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
+          <t>[155.6, 150.57]</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>[63.28, 70.68]</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
           <t>[99.92, 127.22]</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr">
+      <c r="M108" t="inlineStr">
         <is>
           <t>[15712.9, 16950.54]</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>[16.11, 16.11]</t>
         </is>
       </c>
     </row>
@@ -6632,17 +8252,32 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>[50.6]</t>
+          <t>[199.53]</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
+          <t>[184.44]</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>[77.79]</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
           <t>[115.33]</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr">
+      <c r="M109" t="inlineStr">
         <is>
           <t>[18281.51]</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>[9.24]</t>
         </is>
       </c>
     </row>
@@ -6689,17 +8324,32 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>[51.33]</t>
+          <t>[193.16]</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
+          <t>[161.31]</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>[78.46]</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
           <t>[139.79]</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr">
+      <c r="M110" t="inlineStr">
         <is>
           <t>[19424.22]</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>[9.73]</t>
         </is>
       </c>
     </row>
@@ -6746,17 +8396,32 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>[48.51]</t>
+          <t>[188.47]</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
+          <t>[174.05]</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>[74.49]</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
           <t>[111.95]</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="M111" t="inlineStr">
         <is>
           <t>[17677.48]</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>[9.91]</t>
         </is>
       </c>
     </row>
@@ -6803,17 +8468,32 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>[27.75]</t>
+          <t>[144.54]</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
+          <t>[135.82]</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>[42.67]</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
           <t>[50.41]</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr">
+      <c r="M112" t="inlineStr">
         <is>
           <t>[9416.06]</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>[None]</t>
         </is>
       </c>
     </row>
@@ -6860,17 +8540,32 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>[27.18]</t>
+          <t>[144.2]</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
+          <t>[133.14]</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>[42.18]</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
           <t>[52.54]</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="M113" t="inlineStr">
         <is>
           <t>[7902.08]</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>[31.79]</t>
         </is>
       </c>
     </row>
@@ -6917,17 +8612,32 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>[30.18]</t>
+          <t>[163.32]</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
+          <t>[144.2]</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>[47.02]</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
           <t>[56.96]</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="M114" t="inlineStr">
         <is>
           <t>[8113.97]</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>[-3.31]</t>
         </is>
       </c>
     </row>
@@ -6974,17 +8684,32 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>[33.6]</t>
+          <t>[180.09]</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
+          <t>[165.33]</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>[52.54]</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
           <t>[38.83]</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr">
+      <c r="M115" t="inlineStr">
         <is>
           <t>[7686.75]</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>[10.3]</t>
         </is>
       </c>
     </row>
@@ -7031,17 +8756,32 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>[30.9]</t>
+          <t>[171.37]</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
+          <t>[150.58]</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>[48.31]</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
           <t>[31.06]</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="M116" t="inlineStr">
         <is>
           <t>[6965.42]</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>[1.84]</t>
         </is>
       </c>
     </row>
@@ -7088,17 +8828,32 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>[25.98]</t>
+          <t>[138.16]</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
+          <t>[120.73]</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>[39.82]</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
           <t>[47.29]</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr">
+      <c r="M117" t="inlineStr">
         <is>
           <t>[8078.89]</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>[12.23]</t>
         </is>
       </c>
     </row>
@@ -7145,17 +8900,32 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>[35.61]</t>
+          <t>[184.44]</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
+          <t>[183.77]</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>[55.18]</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
           <t>[33.38]</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr">
+      <c r="M118" t="inlineStr">
         <is>
           <t>[9755.46]</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>[12.53]</t>
         </is>
       </c>
     </row>
@@ -7202,17 +8972,32 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>[23.25]</t>
+          <t>[112.67999999999999]</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
+          <t>[105.64]</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>[35.66]</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
           <t>[70.6]</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr">
+      <c r="M119" t="inlineStr">
         <is>
           <t>[7710.49]</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>[21.91]</t>
         </is>
       </c>
     </row>
@@ -7259,17 +9044,32 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>[20.79]</t>
+          <t>[116.36]</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
+          <t>[113.01]</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>[32.44]</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
           <t>[16.97]</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr">
+      <c r="M120" t="inlineStr">
         <is>
           <t>[4227.16]</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>[7.75]</t>
         </is>
       </c>
     </row>
@@ -7316,17 +9116,32 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>[28.59]</t>
+          <t>[145.54]</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
+          <t>[131.12]</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>[44.03]</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
           <t>[69.22]</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr">
+      <c r="M121" t="inlineStr">
         <is>
           <t>[8797.98]</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>[9.33]</t>
         </is>
       </c>
     </row>
@@ -7373,17 +9188,32 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>[38.68]</t>
+          <t>[154.26]</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
+          <t>[141.51999999999998]</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>[59.89]</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
           <t>[128.74]</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="M122" t="inlineStr">
         <is>
           <t>[13594.32]</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>[3.72]</t>
         </is>
       </c>
     </row>
@@ -7430,17 +9260,32 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>[37.25]</t>
+          <t>[148.23]</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
+          <t>[139.17999999999998]</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>[57.92]</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
           <t>[104.72]</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="M123" t="inlineStr">
         <is>
           <t>[12618.77]</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>[4.58]</t>
         </is>
       </c>
     </row>
@@ -7487,17 +9332,32 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>[29.51, 33.09]</t>
+          <t>[120.72, 139.17]</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
+          <t>[99.94, 138.84]</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>[45.77, 51.38]</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
           <t>[114.2, 104.68]</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr">
+      <c r="M124" t="inlineStr">
         <is>
           <t>[10102.37, 11336.15]</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>[1.33, 1.33]</t>
         </is>
       </c>
     </row>
@@ -7544,17 +9404,32 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>[26.99]</t>
+          <t>[116.03]</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
+          <t>[97.25]</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>[42.11]</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
           <t>[90.12]</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr">
+      <c r="M125" t="inlineStr">
         <is>
           <t>[8658.24]</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>[7.72]</t>
         </is>
       </c>
     </row>
@@ -7601,17 +9476,32 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>[31.31]</t>
+          <t>[136.49]</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
+          <t>[124.08000000000001]</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>[48.49]</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
           <t>[108.6]</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr">
+      <c r="M126" t="inlineStr">
         <is>
           <t>[10944.18]</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>[14.99]</t>
         </is>
       </c>
     </row>
@@ -7658,17 +9548,32 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>[22.42]</t>
+          <t>[95.24]</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
+          <t>[90.53999999999999]</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>[34.91]</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
           <t>[107.47]</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr">
+      <c r="M127" t="inlineStr">
         <is>
           <t>[7387.58]</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>[20.7]</t>
         </is>
       </c>
     </row>
@@ -7715,17 +9620,32 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>[54.97]</t>
+          <t>[170.7]</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
+          <t>[207.25]</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>[84.64]</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
           <t>[111.9]</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr">
+      <c r="M128" t="inlineStr">
         <is>
           <t>[18427.14]</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>[11.44]</t>
         </is>
       </c>
     </row>
@@ -7772,17 +9692,32 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>[35.66]</t>
+          <t>[143.85999999999999]</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
+          <t>[119.72]</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>[55.18]</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
           <t>[102.68]</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr">
+      <c r="M129" t="inlineStr">
         <is>
           <t>[12746.04]</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>[6.01]</t>
         </is>
       </c>
     </row>
@@ -7829,17 +9764,32 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>[29.0]</t>
+          <t>[124.08]</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
+          <t>[108.32]</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>[45.05]</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
           <t>[109.57]</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr">
+      <c r="M130" t="inlineStr">
         <is>
           <t>[9868.67]</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>[12.23]</t>
         </is>
       </c>
     </row>
@@ -7886,17 +9836,32 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>[20.15]</t>
+          <t>[75.46]</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
+          <t>[61.36999999999999]</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>[29.76]</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
           <t>[130.01]</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr">
+      <c r="M131" t="inlineStr">
         <is>
           <t>[8824.85]</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>[None]</t>
         </is>
       </c>
     </row>
@@ -7943,17 +9908,32 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>[41.84]</t>
+          <t>[161.97]</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
+          <t>[135.48000000000002]</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>[63.22]</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
           <t>[116.59]</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr">
+      <c r="M132" t="inlineStr">
         <is>
           <t>[16776.86]</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>[-15.83]</t>
         </is>
       </c>
     </row>
@@ -8000,17 +9980,32 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>[23.04]</t>
+          <t>[87.86]</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
+          <t>[76.13]</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>[34.1]</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
           <t>[128.32]</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr">
+      <c r="M133" t="inlineStr">
         <is>
           <t>[10163.93]</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>[-0.03]</t>
         </is>
       </c>
     </row>
@@ -8057,17 +10052,32 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>[31.55, 36.14]</t>
+          <t>[118.71, 128.78]</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
+          <t>[112.01, 108.99000000000001]</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>[46.81, 53.86]</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
           <t>[168.59, 149.72]</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr">
+      <c r="M134" t="inlineStr">
         <is>
           <t>[13603.65, 15493.5]</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>[6.76, 6.76]</t>
         </is>
       </c>
     </row>
@@ -8114,17 +10124,32 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>[42.95]</t>
+          <t>[143.87]</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
+          <t>[135.15]</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>[63.49]</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
           <t>[209.98]</t>
         </is>
       </c>
-      <c r="K135" t="inlineStr">
+      <c r="M135" t="inlineStr">
         <is>
           <t>[19187.01]</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>[6.29]</t>
         </is>
       </c>
     </row>
@@ -8171,17 +10196,32 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>[36.99]</t>
+          <t>[133.47]</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
+          <t>[114.35]</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>[55.72]</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
           <t>[154.91]</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr">
+      <c r="M136" t="inlineStr">
         <is>
           <t>[15440.16]</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>[8.08]</t>
         </is>
       </c>
     </row>
@@ -8228,17 +10268,32 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>[21.96]</t>
+          <t>[81.83]</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
+          <t>[75.46]</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>[32.64]</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
           <t>[143.62]</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr">
+      <c r="M137" t="inlineStr">
         <is>
           <t>[9316.05]</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>[13.77]</t>
         </is>
       </c>
     </row>
@@ -8285,17 +10340,32 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>[24.93]</t>
+          <t>[85.18]</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
+          <t>[79.14]</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>[37.09]</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
           <t>[197.67]</t>
         </is>
       </c>
-      <c r="K138" t="inlineStr">
+      <c r="M138" t="inlineStr">
         <is>
           <t>[10907.08]</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>[14.9]</t>
         </is>
       </c>
     </row>
@@ -8342,17 +10412,32 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>[55.8]</t>
+          <t>[184.10999999999999]</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
+          <t>[155.26999999999998]</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>[82.4]</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
           <t>[194.64]</t>
         </is>
       </c>
-      <c r="K139" t="inlineStr">
+      <c r="M139" t="inlineStr">
         <is>
           <t>[24688.61]</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>[-9.89]</t>
         </is>
       </c>
     </row>
@@ -8399,17 +10484,32 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>[42.09]</t>
+          <t>[153.93]</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
+          <t>[135.15]</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>[63.26]</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
           <t>[148.74]</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr">
+      <c r="M140" t="inlineStr">
         <is>
           <t>[17363.57]</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>[8.1]</t>
         </is>
       </c>
     </row>
@@ -8456,17 +10556,32 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>[52.89]</t>
+          <t>[250.18]</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
+          <t>[234.76]</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>[81.47]</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
           <t>[92.99]</t>
         </is>
       </c>
-      <c r="K141" t="inlineStr">
+      <c r="M141" t="inlineStr">
         <is>
           <t>[17480.66]</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>[-0.62]</t>
         </is>
       </c>
     </row>
@@ -8513,17 +10628,32 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>[45.74]</t>
+          <t>[159.63]</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
+          <t>[133.14]</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>[70.09]</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
           <t>[153.54]</t>
         </is>
       </c>
-      <c r="K142" t="inlineStr">
+      <c r="M142" t="inlineStr">
         <is>
           <t>[17231.25]</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>[0.38]</t>
         </is>
       </c>
     </row>
@@ -8570,17 +10700,32 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>[73.34]</t>
+          <t>[250.84]</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
+          <t>[214.95999999999998]</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>[111.18]</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
           <t>[151.64]</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr">
+      <c r="M143" t="inlineStr">
         <is>
           <t>[25300.9]</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>[-6.55]</t>
         </is>
       </c>
     </row>
@@ -8627,17 +10772,32 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>[57.99]</t>
+          <t>[206.58]</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
+          <t>[170.70000000000002]</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>[87.48]</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
           <t>[166.42]</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr">
+      <c r="M144" t="inlineStr">
         <is>
           <t>[23805.73]</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>[10.32]</t>
         </is>
       </c>
     </row>
@@ -8684,17 +10844,32 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>[37.21]</t>
+          <t>[133.14000000000001]</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
+          <t>[129.11]</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>[55.74]</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
           <t>[176.76]</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr">
+      <c r="M145" t="inlineStr">
         <is>
           <t>[15823.69]</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>[16.59]</t>
         </is>
       </c>
     </row>
@@ -8741,17 +10916,32 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>[55.91, 54.31]</t>
+          <t>[195.51000000000002, 191.48]</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
+          <t>[162.98000000000002, 177.74]</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>[85.39, 81.62]</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
           <t>[134.89, 165.44]</t>
         </is>
       </c>
-      <c r="K146" t="inlineStr">
+      <c r="M146" t="inlineStr">
         <is>
           <t>[21298.58, 22245.74]</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>[9.12, 9.12]</t>
         </is>
       </c>
     </row>

--- a/Peakfinder Results/RESULTS_TT.xlsx
+++ b/Peakfinder Results/RESULTS_TT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N231"/>
+  <dimension ref="A1:M231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,11 +499,6 @@
           <t>AUC</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -571,11 +566,6 @@
           <t>[6660.57]</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[None]</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -643,11 +633,6 @@
           <t>[6527.53, 6035.29, 5555.23]</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[21.58, 21.58, 21.58]</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -715,11 +700,6 @@
           <t>[4528.96]</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>[-8.37]</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -787,11 +767,6 @@
           <t>[3744.3]</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>[-2.17]</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -859,11 +834,6 @@
           <t>[8599.23, 5794.6]</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>[-9.16, -9.16]</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -931,11 +901,6 @@
           <t>[8914.52]</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>[-12.09]</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1003,11 +968,6 @@
           <t>[6352.67]</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>[-10.16]</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1075,11 +1035,6 @@
           <t>[6755.05, 4730.48]</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>[21.58, 21.58]</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1147,11 +1102,6 @@
           <t>[3312.05]</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>[19.21]</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1219,11 +1169,6 @@
           <t>[8334.05, 3857.06]</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>[10.9, 10.9]</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1291,11 +1236,6 @@
           <t>[3674.43]</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>[17.44]</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1363,11 +1303,6 @@
           <t>[6248.64]</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>[23.05]</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1435,11 +1370,6 @@
           <t>[4597.73]</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>[18.8]</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1507,11 +1437,6 @@
           <t>[8108.53, 7178.11]</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>[-0.89, -0.89]</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1579,11 +1504,6 @@
           <t>[10724.99]</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>[None]</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1651,11 +1571,6 @@
           <t>[13209.68, 10385.23, 10701.55]</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>[5.9, 5.9, 5.9]</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1723,11 +1638,6 @@
           <t>[11133.77]</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>[4.04]</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1795,11 +1705,6 @@
           <t>[12739.76]</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>[11.92]</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1867,11 +1772,6 @@
           <t>[8210.26]</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>[8.65]</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1939,11 +1839,6 @@
           <t>[11017.48]</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>[13.83]</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2011,11 +1906,6 @@
           <t>[12340.09, 11582.23]</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>[11.26, 11.26]</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2083,11 +1973,6 @@
           <t>[11293.7]</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>[16.11]</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2155,11 +2040,6 @@
           <t>[13351.68]</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>[12.95]</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2227,11 +2107,6 @@
           <t>[13350.31, 10912.8]</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>[13.32, 13.32]</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2299,11 +2174,6 @@
           <t>[25421.91]</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>[9.24]</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2371,11 +2241,6 @@
           <t>[16802.99]</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>[9.73]</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2443,11 +2308,6 @@
           <t>[14944.38, 12442.7]</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>[13.5, 13.5]</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2515,11 +2375,6 @@
           <t>[16123.5]</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>[13.32]</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2587,11 +2442,6 @@
           <t>[10668.78]</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>[9.91]</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2659,11 +2509,6 @@
           <t>[12520.05]</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>[None]</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2731,11 +2576,6 @@
           <t>[13642.14]</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>[-1.18]</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2803,11 +2643,6 @@
           <t>[8082.37]</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>[31.79]</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2875,11 +2710,6 @@
           <t>[11029.49, 10734.89]</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>[-3.2, -3.2]</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2947,11 +2777,6 @@
           <t>[12314.62]</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>[10.85]</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3019,11 +2844,6 @@
           <t>[2385.02]</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>[10.3]</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3091,11 +2911,6 @@
           <t>[12890.79]</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>[1.84]</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3163,11 +2978,6 @@
           <t>[10284.91]</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>[3.63]</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3235,11 +3045,6 @@
           <t>[10006.42, 9419.99]</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>[8.59, 8.59]</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3307,11 +3112,6 @@
           <t>[8488.03, 11191.39]</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>[12.53, 12.53]</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3379,11 +3179,6 @@
           <t>[10449.78]</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>[11.93]</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3451,11 +3246,6 @@
           <t>[9227.84, 11936.06]</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>[21.91, 21.91]</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3523,11 +3313,6 @@
           <t>[12176.37, 14994.85]</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>[7.75, 7.75]</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3595,11 +3380,6 @@
           <t>[12580.69]</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>[7.16]</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3667,11 +3447,6 @@
           <t>[11440.56]</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>[None]</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3739,11 +3514,6 @@
           <t>[10095.6, 9700.4]</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>[3.72, 3.72]</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3811,11 +3581,6 @@
           <t>[5334.03, 5796.44]</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>[36.17, 36.17]</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3883,11 +3648,6 @@
           <t>[10174.1]</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>[10.11]</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3955,11 +3715,6 @@
           <t>[11459.74, 11411.79, 6837.99]</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>[1.33, 1.33, 1.33]</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4027,11 +3782,6 @@
           <t>[5801.06, 7427.35]</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>[14.99, 14.99]</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4099,11 +3849,6 @@
           <t>[9176.41, 7700.45]</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>[20.7, 20.7]</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4171,11 +3916,6 @@
           <t>[8240.88]</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>[15.32]</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4243,11 +3983,6 @@
           <t>[7096.2]</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>[14.05]</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4315,11 +4050,6 @@
           <t>[7829.55]</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>[15.16]</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4387,11 +4117,6 @@
           <t>[6040.1]</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>[17.93]</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4459,11 +4184,6 @@
           <t>[11363.89]</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>[6.01]</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4531,11 +4251,6 @@
           <t>[5726.84, 7033.53]</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>[0.4, 0.4]</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4603,11 +4318,6 @@
           <t>[4972.0]</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>[-15.83]</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4675,11 +4385,6 @@
           <t>[7738.17, 5268.38]</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>[-1.61, -1.61]</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4747,11 +4452,6 @@
           <t>[4449.28, 6251.3, 5854.74]</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>[6.76, 6.76, 6.76]</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4819,11 +4519,6 @@
           <t>[6377.62]</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>[6.29]</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4891,11 +4586,6 @@
           <t>[6467.83]</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>[14.57]</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4963,11 +4653,6 @@
           <t>[5627.03]</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>[8.08]</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5035,11 +4720,6 @@
           <t>[7069.06, 5648.01]</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>[5.7, 5.7]</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5107,11 +4787,6 @@
           <t>[6296.06]</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>[6.05]</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5179,11 +4854,6 @@
           <t>[5764.06]</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>[13.77]</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5251,11 +4921,6 @@
           <t>[7644.75]</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>[0.31]</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5323,11 +4988,6 @@
           <t>[6628.12, 6199.2]</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>[8.68, 8.68]</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5395,11 +5055,6 @@
           <t>[17902.09, 5659.07]</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>[None, None]</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5467,11 +5122,6 @@
           <t>[28160.15]</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>[-9.89]</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5539,11 +5189,6 @@
           <t>[19613.36, 22784.2]</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>[-3.57, -3.57]</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5611,11 +5256,6 @@
           <t>[23304.64]</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>[0.38]</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5683,11 +5323,6 @@
           <t>[26129.26, 23717.0]</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>[3.66, 3.66]</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5755,11 +5390,6 @@
           <t>[17991.3]</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>[-6.55]</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5827,11 +5457,6 @@
           <t>[13788.54, 15858.62]</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>[16.59, 16.59]</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5899,11 +5524,6 @@
           <t>[15509.77]</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>[13.06]</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5971,11 +5591,6 @@
           <t>[8039.66]</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>[9.33]</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6043,11 +5658,6 @@
           <t>[12143.53, 17004.11]</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>[8.63, 8.63]</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6115,11 +5725,6 @@
           <t>[4169.25, 19210.15]</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>[17.73, 17.73]</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6187,11 +5792,6 @@
           <t>[19454.92, 5183.66]</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>[9.12, 9.12]</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6259,11 +5859,6 @@
           <t>[12034.39]</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>[None]</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6331,11 +5926,6 @@
           <t>[8502.52, 10960.5]</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>[-1.08, -1.08]</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6403,11 +5993,6 @@
           <t>[10931.62, 11581.6]</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>[-8.37, -8.37]</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6475,11 +6060,6 @@
           <t>[10562.97]</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>[-2.17]</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6547,11 +6127,6 @@
           <t>[13653.89]</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>[-9.16]</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6619,11 +6194,6 @@
           <t>[12118.11]</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>[-12.09]</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6691,11 +6261,6 @@
           <t>[7460.78]</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>[21.58]</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6763,11 +6328,6 @@
           <t>[7784.66, 7733.45]</t>
         </is>
       </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>[10.9, 10.9]</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6835,11 +6395,6 @@
           <t>[7505.73, 3791.77]</t>
         </is>
       </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>[22.39, 22.39]</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6907,11 +6462,6 @@
           <t>[5623.93]</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>[17.44]</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6979,11 +6529,6 @@
           <t>[8147.9, 8758.21]</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>[23.05, 23.05]</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7051,11 +6596,6 @@
           <t>[9567.42, 9677.98]</t>
         </is>
       </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>[18.8, 18.8]</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7123,11 +6663,6 @@
           <t>[25333.35, 19472.88]</t>
         </is>
       </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>[None, None]</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7195,11 +6730,6 @@
           <t>[19719.56]</t>
         </is>
       </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>[5.9]</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7267,11 +6797,6 @@
           <t>[12669.44]</t>
         </is>
       </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>[30.27]</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7339,11 +6864,6 @@
           <t>[16923.88, 22450.7]</t>
         </is>
       </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>[4.04, 4.04]</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7411,11 +6931,6 @@
           <t>[21845.04, 10961.05]</t>
         </is>
       </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>[4.04, 4.04]</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7483,11 +6998,6 @@
           <t>[19400.23]</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>[7.78]</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7555,11 +7065,6 @@
           <t>[16373.61]</t>
         </is>
       </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>[11.92]</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7627,11 +7132,6 @@
           <t>[18511.76, 16399.61]</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>[8.65, 8.65]</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7699,11 +7199,6 @@
           <t>[16967.87]</t>
         </is>
       </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>[13.83]</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7771,11 +7266,6 @@
           <t>[20429.08]</t>
         </is>
       </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>[11.26]</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7843,11 +7333,6 @@
           <t>[18876.83]</t>
         </is>
       </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>[9.24]</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7915,11 +7400,6 @@
           <t>[18952.5, 18280.21]</t>
         </is>
       </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>[9.73, 9.73]</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7987,11 +7467,6 @@
           <t>[20411.98]</t>
         </is>
       </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>[13.5]</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8059,11 +7534,6 @@
           <t>[9210.25]</t>
         </is>
       </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>[None]</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -8131,11 +7601,6 @@
           <t>[7991.16]</t>
         </is>
       </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>[-1.18]</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -8203,11 +7668,6 @@
           <t>[5071.71]</t>
         </is>
       </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>[31.79]</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -8275,11 +7735,6 @@
           <t>[9582.29]</t>
         </is>
       </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>[-3.2]</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8347,11 +7802,6 @@
           <t>[9582.67]</t>
         </is>
       </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>[10.85]</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8419,11 +7869,6 @@
           <t>[7806.56]</t>
         </is>
       </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>[12.23]</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8491,11 +7936,6 @@
           <t>[8544.88]</t>
         </is>
       </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>[3.63]</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8563,11 +8003,6 @@
           <t>[6213.36, 11675.64]</t>
         </is>
       </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>[13.09, 13.09]</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8635,11 +8070,6 @@
           <t>[8381.88, 6416.58, 9443.9]</t>
         </is>
       </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>[8.59, 8.59, 8.59]</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8707,11 +8137,6 @@
           <t>[8426.46]</t>
         </is>
       </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>[12.53]</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8779,11 +8204,6 @@
           <t>[7152.56]</t>
         </is>
       </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>[11.93]</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8851,11 +8271,6 @@
           <t>[6541.09, 16532.68]</t>
         </is>
       </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>[7.16, 7.16]</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8923,11 +8338,6 @@
           <t>[7018.21, 6633.54, 7054.98]</t>
         </is>
       </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>[9.33, 9.33, 9.33]</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8995,11 +8405,6 @@
           <t>[19307.48]</t>
         </is>
       </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>[None]</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -9067,11 +8472,6 @@
           <t>[18159.07, 21143.88]</t>
         </is>
       </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>[5.65, 5.65]</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -9139,11 +8539,6 @@
           <t>[19040.48]</t>
         </is>
       </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>[4.58]</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -9211,11 +8606,6 @@
           <t>[15117.76]</t>
         </is>
       </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>[10.11]</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -9283,11 +8673,6 @@
           <t>[17509.99]</t>
         </is>
       </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>[14.99]</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9355,11 +8740,6 @@
           <t>[8301.34]</t>
         </is>
       </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>[15.32]</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9427,11 +8807,6 @@
           <t>[17405.68, 16321.53]</t>
         </is>
       </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>[14.05, 14.05]</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9499,11 +8874,6 @@
           <t>[19145.18, 16260.59]</t>
         </is>
       </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>[14.44, 14.44]</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9571,11 +8941,6 @@
           <t>[15011.63]</t>
         </is>
       </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>[15.16]</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9643,11 +9008,6 @@
           <t>[13202.85, 14443.73]</t>
         </is>
       </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>[11.44, 11.44]</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9715,11 +9075,6 @@
           <t>[17887.39]</t>
         </is>
       </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>[17.93]</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9787,11 +9142,6 @@
           <t>[14830.6, 16915.04]</t>
         </is>
       </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>[6.01, 6.01]</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9859,11 +9209,6 @@
           <t>[16849.11]</t>
         </is>
       </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>[12.23]</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9931,11 +9276,6 @@
           <t>[17044.38]</t>
         </is>
       </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>[None]</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -10003,11 +9343,6 @@
           <t>[9739.65, 10195.39]</t>
         </is>
       </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>[0.4, 0.4]</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -10075,11 +9410,6 @@
           <t>[10504.11]</t>
         </is>
       </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>[29.27]</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -10147,11 +9477,6 @@
           <t>[10411.53, 12530.3]</t>
         </is>
       </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>[-15.83, -15.83]</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -10219,11 +9544,6 @@
           <t>[16177.44]</t>
         </is>
       </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>[17.75]</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -10291,11 +9611,6 @@
           <t>[14850.01]</t>
         </is>
       </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>[-1.61]</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -10363,11 +9678,6 @@
           <t>[16535.37, 10569.61]</t>
         </is>
       </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>[6.76, 6.76]</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -10435,11 +9745,6 @@
           <t>[21046.6]</t>
         </is>
       </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>[5.7]</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10507,11 +9812,6 @@
           <t>[3462.56]</t>
         </is>
       </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>[6.05]</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10579,11 +9879,6 @@
           <t>[16454.96, 17135.08, 9011.91]</t>
         </is>
       </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>[13.77, 13.77, 13.77]</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10651,11 +9946,6 @@
           <t>[15174.66, 21608.22, 15604.19]</t>
         </is>
       </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>[0.31, 0.31, 0.31]</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10723,11 +10013,6 @@
           <t>[14994.72]</t>
         </is>
       </c>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>[14.9]</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10795,11 +10080,6 @@
           <t>[13300.14]</t>
         </is>
       </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>[8.68]</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10867,11 +10147,6 @@
           <t>[10586.08]</t>
         </is>
       </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>[None]</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10939,11 +10214,6 @@
           <t>[38433.86]</t>
         </is>
       </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>[-9.89]</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -11011,11 +10281,6 @@
           <t>[21872.68]</t>
         </is>
       </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>[8.1]</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -11083,11 +10348,6 @@
           <t>[31749.95]</t>
         </is>
       </c>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>[-0.62]</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -11155,11 +10415,6 @@
           <t>[25862.07]</t>
         </is>
       </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>[-3.57]</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -11227,11 +10482,6 @@
           <t>[28961.0, 16632.31, 31652.35]</t>
         </is>
       </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>[3.66, 3.66, 3.66]</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -11299,11 +10549,6 @@
           <t>[17102.59]</t>
         </is>
       </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>[12.31]</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -11371,11 +10616,6 @@
           <t>[38403.68]</t>
         </is>
       </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>[10.32]</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -11443,11 +10683,6 @@
           <t>[11856.75]</t>
         </is>
       </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>[11.84]</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -11515,11 +10750,6 @@
           <t>[32613.87, 36820.56]</t>
         </is>
       </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>[16.59, 16.59]</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -11587,11 +10817,6 @@
           <t>[16364.94, 30711.16]</t>
         </is>
       </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>[9.33, 9.33]</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -11659,11 +10884,6 @@
           <t>[27488.47, 23233.1, 38435.97]</t>
         </is>
       </c>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>[17.73, 17.73, 17.73]</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -11731,11 +10951,6 @@
           <t>[29697.27]</t>
         </is>
       </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>[9.12]</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11803,11 +11018,6 @@
           <t>[11131.48]</t>
         </is>
       </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>[None]</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11875,11 +11085,6 @@
           <t>[10840.95, 10910.9]</t>
         </is>
       </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>[-1.08, -1.08]</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11947,11 +11152,6 @@
           <t>[10853.4]</t>
         </is>
       </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>[21.58]</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -12019,11 +11219,6 @@
           <t>[14195.33, 8540.19]</t>
         </is>
       </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>[-9.16, -9.16]</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -12091,11 +11286,6 @@
           <t>[15597.4, 9786.7]</t>
         </is>
       </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>[-10.16, -10.16]</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -12163,11 +11353,6 @@
           <t>[13312.44]</t>
         </is>
       </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>[5.22]</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -12235,11 +11420,6 @@
           <t>[7384.88, 8641.32]</t>
         </is>
       </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>[19.21, 19.21]</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -12307,11 +11487,6 @@
           <t>[9098.87]</t>
         </is>
       </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>[22.39]</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -12379,11 +11554,6 @@
           <t>[9943.69]</t>
         </is>
       </c>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>[17.44]</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -12451,11 +11621,6 @@
           <t>[7123.15, 8999.59]</t>
         </is>
       </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>[23.05, 23.05]</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -12523,11 +11688,6 @@
           <t>[10544.54]</t>
         </is>
       </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>[18.8]</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -12595,11 +11755,6 @@
           <t>[16536.77, 11853.4, 9633.85]</t>
         </is>
       </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>[-0.89, -0.89, -0.89]</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -12667,11 +11822,6 @@
           <t>[21898.04, 17523.74]</t>
         </is>
       </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>[5.9, 5.9]</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -12739,11 +11889,6 @@
           <t>[21477.3, 18082.17]</t>
         </is>
       </c>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>[4.04, 4.04]</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -12811,11 +11956,6 @@
           <t>[19756.5]</t>
         </is>
       </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>[7.78]</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -12883,11 +12023,6 @@
           <t>[15697.14]</t>
         </is>
       </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>[11.92]</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -12955,11 +12090,6 @@
           <t>[20143.85, 15486.55]</t>
         </is>
       </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>[13.83, 13.83]</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -13027,11 +12157,6 @@
           <t>[19402.78]</t>
         </is>
       </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>[11.26]</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -13099,11 +12224,6 @@
           <t>[15712.9, 16950.54, 15249.77]</t>
         </is>
       </c>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>[16.11, 16.11, 16.11]</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -13171,11 +12291,6 @@
           <t>[16756.94]</t>
         </is>
       </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>[12.95]</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -13243,11 +12358,6 @@
           <t>[18281.51, 20806.63, 21028.34]</t>
         </is>
       </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>[9.24, 9.24, 9.24]</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -13315,11 +12425,6 @@
           <t>[19424.22, 14711.15]</t>
         </is>
       </c>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>[9.73, 9.73]</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -13387,11 +12492,6 @@
           <t>[17677.48]</t>
         </is>
       </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>[9.91]</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -13459,11 +12559,6 @@
           <t>[9416.06]</t>
         </is>
       </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>[None]</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -13531,11 +12626,6 @@
           <t>[13061.14]</t>
         </is>
       </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>[-1.18]</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -13603,11 +12693,6 @@
           <t>[7902.08]</t>
         </is>
       </c>
-      <c r="N183" t="inlineStr">
-        <is>
-          <t>[31.79]</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -13675,11 +12760,6 @@
           <t>[8113.97]</t>
         </is>
       </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>[-3.31]</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -13747,11 +12827,6 @@
           <t>[9890.52, 10153.22]</t>
         </is>
       </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>[10.85, 10.85]</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -13819,11 +12894,6 @@
           <t>[7686.75, 10621.46]</t>
         </is>
       </c>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>[10.3, 10.3]</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -13891,11 +12961,6 @@
           <t>[6965.42]</t>
         </is>
       </c>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>[1.84]</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -13963,11 +13028,6 @@
           <t>[8078.89, 7363.74]</t>
         </is>
       </c>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>[12.23, 12.23]</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -14035,11 +13095,6 @@
           <t>[9755.46]</t>
         </is>
       </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>[12.53]</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -14107,11 +13162,6 @@
           <t>[11248.99]</t>
         </is>
       </c>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>[11.93]</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -14179,11 +13229,6 @@
           <t>[7710.49, 11046.24]</t>
         </is>
       </c>
-      <c r="N191" t="inlineStr">
-        <is>
-          <t>[21.91, 21.91]</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -14251,11 +13296,6 @@
           <t>[4227.16]</t>
         </is>
       </c>
-      <c r="N192" t="inlineStr">
-        <is>
-          <t>[7.75]</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -14323,11 +13363,6 @@
           <t>[8797.98, 6505.63, 6931.54]</t>
         </is>
       </c>
-      <c r="N193" t="inlineStr">
-        <is>
-          <t>[9.33, 9.33, 9.33]</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -14395,11 +13430,6 @@
           <t>[13594.32]</t>
         </is>
       </c>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>[3.72]</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -14467,11 +13497,6 @@
           <t>[6572.26]</t>
         </is>
       </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>[36.17]</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -14539,11 +13564,6 @@
           <t>[9370.55]</t>
         </is>
       </c>
-      <c r="N196" t="inlineStr">
-        <is>
-          <t>[5.65]</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -14611,11 +13631,6 @@
           <t>[12618.77]</t>
         </is>
       </c>
-      <c r="N197" t="inlineStr">
-        <is>
-          <t>[4.58]</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -14683,11 +13698,6 @@
           <t>[10102.37, 11336.15, 14136.22, 12801.13]</t>
         </is>
       </c>
-      <c r="N198" t="inlineStr">
-        <is>
-          <t>[1.33, 1.33, 1.33, 1.33]</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -14755,11 +13765,6 @@
           <t>[8658.24]</t>
         </is>
       </c>
-      <c r="N199" t="inlineStr">
-        <is>
-          <t>[7.72]</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -14827,11 +13832,6 @@
           <t>[10944.18, 9522.43]</t>
         </is>
       </c>
-      <c r="N200" t="inlineStr">
-        <is>
-          <t>[14.99, 14.99]</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -14899,11 +13899,6 @@
           <t>[7387.58, 10109.78]</t>
         </is>
       </c>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>[20.7, 20.7]</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -14971,11 +13966,6 @@
           <t>[8155.08]</t>
         </is>
       </c>
-      <c r="N202" t="inlineStr">
-        <is>
-          <t>[15.32]</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -15043,11 +14033,6 @@
           <t>[9100.18]</t>
         </is>
       </c>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>[14.44]</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -15115,11 +14100,6 @@
           <t>[16347.35]</t>
         </is>
       </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>[15.16]</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -15187,11 +14167,6 @@
           <t>[18427.14]</t>
         </is>
       </c>
-      <c r="N205" t="inlineStr">
-        <is>
-          <t>[11.44]</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -15259,11 +14234,6 @@
           <t>[12746.04]</t>
         </is>
       </c>
-      <c r="N206" t="inlineStr">
-        <is>
-          <t>[6.01]</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -15331,11 +14301,6 @@
           <t>[9868.67]</t>
         </is>
       </c>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>[12.23]</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -15403,11 +14368,6 @@
           <t>[8824.85, 14418.22]</t>
         </is>
       </c>
-      <c r="N208" t="inlineStr">
-        <is>
-          <t>[None, None]</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -15475,11 +14435,6 @@
           <t>[16776.86, 24841.1]</t>
         </is>
       </c>
-      <c r="N209" t="inlineStr">
-        <is>
-          <t>[-15.83, -15.83]</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -15547,11 +14502,6 @@
           <t>[12849.97, 11426.93]</t>
         </is>
       </c>
-      <c r="N210" t="inlineStr">
-        <is>
-          <t>[-1.61, -1.61]</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -15619,11 +14569,6 @@
           <t>[10163.93]</t>
         </is>
       </c>
-      <c r="N211" t="inlineStr">
-        <is>
-          <t>[-0.03]</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -15691,11 +14636,6 @@
           <t>[13603.65, 15493.5]</t>
         </is>
       </c>
-      <c r="N212" t="inlineStr">
-        <is>
-          <t>[6.76, 6.76]</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -15763,11 +14703,6 @@
           <t>[19187.01, 11906.65]</t>
         </is>
       </c>
-      <c r="N213" t="inlineStr">
-        <is>
-          <t>[6.29, 6.29]</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -15835,11 +14770,6 @@
           <t>[15440.16, 9726.4]</t>
         </is>
       </c>
-      <c r="N214" t="inlineStr">
-        <is>
-          <t>[8.08, 8.08]</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -15907,11 +14837,6 @@
           <t>[8263.41]</t>
         </is>
       </c>
-      <c r="N215" t="inlineStr">
-        <is>
-          <t>[5.7]</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -15979,11 +14904,6 @@
           <t>[9316.05]</t>
         </is>
       </c>
-      <c r="N216" t="inlineStr">
-        <is>
-          <t>[13.77]</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -16051,11 +14971,6 @@
           <t>[10907.08, 10793.96, 9268.85]</t>
         </is>
       </c>
-      <c r="N217" t="inlineStr">
-        <is>
-          <t>[14.9, 14.9, 14.9]</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -16123,11 +15038,6 @@
           <t>[8399.24]</t>
         </is>
       </c>
-      <c r="N218" t="inlineStr">
-        <is>
-          <t>[8.68]</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -16195,11 +15105,6 @@
           <t>[23794.65]</t>
         </is>
       </c>
-      <c r="N219" t="inlineStr">
-        <is>
-          <t>[None]</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -16267,11 +15172,6 @@
           <t>[24688.61, 13174.48]</t>
         </is>
       </c>
-      <c r="N220" t="inlineStr">
-        <is>
-          <t>[-9.89, -9.89]</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -16339,11 +15239,6 @@
           <t>[17363.57]</t>
         </is>
       </c>
-      <c r="N221" t="inlineStr">
-        <is>
-          <t>[8.1]</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -16411,11 +15306,6 @@
           <t>[17480.66]</t>
         </is>
       </c>
-      <c r="N222" t="inlineStr">
-        <is>
-          <t>[-0.62]</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -16483,11 +15373,6 @@
           <t>[17231.25]</t>
         </is>
       </c>
-      <c r="N223" t="inlineStr">
-        <is>
-          <t>[0.38]</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -16555,11 +15440,6 @@
           <t>[9569.65]</t>
         </is>
       </c>
-      <c r="N224" t="inlineStr">
-        <is>
-          <t>[3.66]</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -16627,11 +15507,6 @@
           <t>[25300.9, 23078.23]</t>
         </is>
       </c>
-      <c r="N225" t="inlineStr">
-        <is>
-          <t>[-6.55, -6.55]</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -16699,11 +15574,6 @@
           <t>[23805.73]</t>
         </is>
       </c>
-      <c r="N226" t="inlineStr">
-        <is>
-          <t>[10.32]</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -16771,11 +15641,6 @@
           <t>[14797.08]</t>
         </is>
       </c>
-      <c r="N227" t="inlineStr">
-        <is>
-          <t>[11.84]</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -16843,11 +15708,6 @@
           <t>[15823.69, 10483.64]</t>
         </is>
       </c>
-      <c r="N228" t="inlineStr">
-        <is>
-          <t>[16.59, 16.59]</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -16915,11 +15775,6 @@
           <t>[24056.81]</t>
         </is>
       </c>
-      <c r="N229" t="inlineStr">
-        <is>
-          <t>[9.33]</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -16987,11 +15842,6 @@
           <t>[8946.67]</t>
         </is>
       </c>
-      <c r="N230" t="inlineStr">
-        <is>
-          <t>[17.73]</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -17057,11 +15907,6 @@
       <c r="M231" t="inlineStr">
         <is>
           <t>[21298.58, 22245.74, 10244.05]</t>
-        </is>
-      </c>
-      <c r="N231" t="inlineStr">
-        <is>
-          <t>[9.12, 9.12, 9.12]</t>
         </is>
       </c>
     </row>
